--- a/Bitacoras/NRC_163_Grupo_47/Concentrado_Grupo_47.xlsx
+++ b/Bitacoras/NRC_163_Grupo_47/Concentrado_Grupo_47.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\Bitacoras\NRC_163_Grupo_47\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F895D84-3164-4684-B75D-76FF40AB234E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031596AC-CA59-4135-8707-2553B4482A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="601" xr2:uid="{B9A46FAB-BFB8-41B7-8BD5-93367ECF6DB5}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>Alumno</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>ARELLANO COMPAÑ CAROLINA</t>
+  </si>
+  <si>
+    <t>Ordinario1</t>
   </si>
 </sst>
 </file>
@@ -323,7 +326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -427,6 +430,9 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -463,7 +469,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -471,7 +477,47 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -840,13 +886,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4298D8-0634-4FE6-9AF5-4E7931047945}">
-  <dimension ref="A1:AC24"/>
+  <dimension ref="A1:AE24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="5190" ySplit="1080" topLeftCell="R10" activePane="bottomRight"/>
-      <selection pane="topRight" activeCell="Y1" sqref="Y1:Y1048576"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T13" sqref="T13"/>
+      <pane xSplit="5190" ySplit="1080" topLeftCell="X1" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="Z1" sqref="Z1:AA1048576"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="AA24" sqref="AA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,40 +922,41 @@
     <col min="23" max="23" width="12.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14" style="30" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="11.42578125" style="2"/>
+    <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="41" t="s">
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="44" t="s">
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="47"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -985,8 +1032,14 @@
       <c r="Y2" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Z2" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="48" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1070,8 +1123,10 @@
         <f>IF(V3&gt;21,"Extraordinario",IF(X3&lt;8,"Primera Vuelta","Exento"))</f>
         <v>Exento</v>
       </c>
+      <c r="Z3"/>
+      <c r="AA3"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1155,8 +1210,15 @@
         <f t="shared" ref="Y4:Y24" si="7">IF(V4&gt;21,"Extraordinario",IF(X4&lt;8,"Primera Vuelta","Exento"))</f>
         <v>Primera Vuelta</v>
       </c>
+      <c r="Z4" s="2">
+        <v>7.34</v>
+      </c>
+      <c r="AA4" s="29">
+        <f>SUM(X4,Z4)/2</f>
+        <v>6.2565241935483868</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1240,8 +1302,10 @@
         <f t="shared" si="7"/>
         <v>Exento</v>
       </c>
+      <c r="Z5"/>
+      <c r="AA5"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1325,17 +1389,24 @@
         <f t="shared" si="7"/>
         <v>Primera Vuelta</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="Z6" s="2">
+        <v>5.23</v>
+      </c>
+      <c r="AA6" s="29">
+        <f>SUM(X6,Z6)/2</f>
+        <v>5.2184588709677424</v>
+      </c>
+      <c r="AC6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1419,19 +1490,21 @@
         <f t="shared" si="7"/>
         <v>Extraordinario</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AC7" t="s">
         <v>36</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <f>COUNTIF(Y3:Y24,"=Extraordinario")</f>
         <v>3</v>
       </c>
-      <c r="AC7" s="31">
-        <f>AB7/22</f>
+      <c r="AE7" s="31">
+        <f>AD7/22</f>
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1515,19 +1588,26 @@
         <f t="shared" si="7"/>
         <v>Primera Vuelta</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="Z8" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="AA8" s="29">
+        <f>SUM(X8,Z8)/2</f>
+        <v>5.0571249999999992</v>
+      </c>
+      <c r="AC8" t="s">
         <v>37</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AD8" s="2">
         <f>COUNTIF(Y3:Y24,"=Primera Vuelta")</f>
         <v>14</v>
       </c>
-      <c r="AC8" s="31">
-        <f t="shared" ref="AC8:AC9" si="8">AB8/22</f>
+      <c r="AE8" s="31">
+        <f t="shared" ref="AE8:AE9" si="8">AD8/22</f>
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1611,19 +1691,21 @@
         <f t="shared" si="7"/>
         <v>Exento</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AC9" t="s">
         <v>38</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AD9" s="2">
         <f>COUNTIF(Y3:Y24,"=Exento")</f>
         <v>5</v>
       </c>
-      <c r="AC9" s="31">
+      <c r="AE9" s="31">
         <f t="shared" si="8"/>
         <v>0.22727272727272727</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1707,8 +1789,10 @@
         <f t="shared" si="7"/>
         <v>Exento</v>
       </c>
+      <c r="Z10"/>
+      <c r="AA10"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1792,8 +1876,15 @@
         <f t="shared" si="7"/>
         <v>Primera Vuelta</v>
       </c>
+      <c r="Z11" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="AA11" s="29">
+        <f t="shared" ref="AA11:AA12" si="9">SUM(X11,Z11)/2</f>
+        <v>2.9606032258064516</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1877,8 +1968,15 @@
         <f t="shared" si="7"/>
         <v>Primera Vuelta</v>
       </c>
+      <c r="Z12" s="2">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="AA12" s="29">
+        <f t="shared" si="9"/>
+        <v>5.0411314516129035</v>
+      </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1962,8 +2060,10 @@
         <f t="shared" si="7"/>
         <v>Extraordinario</v>
       </c>
+      <c r="Z13"/>
+      <c r="AA13"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2047,8 +2147,10 @@
         <f t="shared" si="7"/>
         <v>Exento</v>
       </c>
+      <c r="Z14"/>
+      <c r="AA14"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2132,8 +2234,15 @@
         <f t="shared" si="7"/>
         <v>Primera Vuelta</v>
       </c>
+      <c r="Z15" s="2">
+        <v>2.38</v>
+      </c>
+      <c r="AA15" s="29">
+        <f>SUM(X15,Z15)/2</f>
+        <v>4.3062963709677415</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2217,8 +2326,10 @@
         <f t="shared" si="7"/>
         <v>Extraordinario</v>
       </c>
+      <c r="Z16"/>
+      <c r="AA16"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2302,8 +2413,15 @@
         <f t="shared" si="7"/>
         <v>Primera Vuelta</v>
       </c>
+      <c r="Z17" s="2">
+        <v>7.27</v>
+      </c>
+      <c r="AA17" s="29">
+        <f t="shared" ref="AA17:AA24" si="10">SUM(X17,Z17)/2</f>
+        <v>7.0509395161290316</v>
+      </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2387,8 +2505,15 @@
         <f t="shared" si="7"/>
         <v>Primera Vuelta</v>
       </c>
+      <c r="Z18" s="2">
+        <v>3.59</v>
+      </c>
+      <c r="AA18" s="29">
+        <f t="shared" si="10"/>
+        <v>5.4757903225806448</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2472,8 +2597,15 @@
         <f t="shared" si="7"/>
         <v>Primera Vuelta</v>
       </c>
+      <c r="Z19" s="2">
+        <v>3.37</v>
+      </c>
+      <c r="AA19" s="29">
+        <f t="shared" si="10"/>
+        <v>4.3324883064516131</v>
+      </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2557,8 +2689,15 @@
         <f t="shared" si="7"/>
         <v>Primera Vuelta</v>
       </c>
+      <c r="Z20" s="2">
+        <v>4.07</v>
+      </c>
+      <c r="AA20" s="29">
+        <f t="shared" si="10"/>
+        <v>4.2846088709677419</v>
+      </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2642,8 +2781,15 @@
         <f t="shared" si="7"/>
         <v>Primera Vuelta</v>
       </c>
+      <c r="Z21" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="AA21" s="29">
+        <f t="shared" si="10"/>
+        <v>5.731590725806452</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2727,8 +2873,15 @@
         <f t="shared" si="7"/>
         <v>Primera Vuelta</v>
       </c>
+      <c r="Z22" s="2">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="AA22" s="29">
+        <f t="shared" si="10"/>
+        <v>4.9934810483870962</v>
+      </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2812,8 +2965,15 @@
         <f t="shared" si="7"/>
         <v>Primera Vuelta</v>
       </c>
+      <c r="Z23" s="2">
+        <v>6.47</v>
+      </c>
+      <c r="AA23" s="29">
+        <f t="shared" si="10"/>
+        <v>5.9578237903225801</v>
+      </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2877,7 +3037,7 @@
       <c r="T24" s="33">
         <v>5.7965806451612902</v>
       </c>
-      <c r="U24" s="47">
+      <c r="U24" s="35">
         <f t="shared" si="3"/>
         <v>5.3086064516129028</v>
       </c>
@@ -2897,9 +3057,15 @@
         <f t="shared" si="7"/>
         <v>Primera Vuelta</v>
       </c>
+      <c r="Z24" s="2">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="AA24" s="29">
+        <f t="shared" si="10"/>
+        <v>4.6622008064516134</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Y24" xr:uid="{1F4298D8-0634-4FE6-9AF5-4E7931047945}"/>
   <mergeCells count="4">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
@@ -2907,14 +3073,19 @@
     <mergeCell ref="Q1:U1"/>
   </mergeCells>
   <conditionalFormatting sqref="Y3:Y24">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Extraordinario">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Extraordinario">
       <formula>NOT(ISERROR(SEARCH("Extraordinario",Y3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Primera Vuelta">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Primera Vuelta">
       <formula>NOT(ISERROR(SEARCH("Primera Vuelta",Y3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Exento">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Exento">
       <formula>NOT(ISERROR(SEARCH("Exento",Y3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA4:AA24">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
